--- a/publication/analyses/outputs/rmse_z/gdptlab_bin-z_rmse-z.xlsx
+++ b/publication/analyses/outputs/rmse_z/gdptlab_bin-z_rmse-z.xlsx
@@ -582,34 +582,34 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>-46.7810494839922</v>
+        <v>-46.78104107773623</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="I2" t="n">
-        <v>-47.80829537787528</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="J2" t="n">
-        <v>1.027245893883094</v>
+        <v>1.027242206660971</v>
       </c>
       <c r="K2" t="n">
-        <v>1.127918359029904</v>
+        <v>1.127914483626852</v>
       </c>
       <c r="L2" t="n">
-        <v>-8.254447186822949e-14</v>
+        <v>-5.874177823038686e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>-2.842414948100758e-14</v>
+        <v>3.749625762508743e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9497771423540288</v>
+        <v>0.9497771477269096</v>
       </c>
       <c r="O2" t="n">
-        <v>1.015061051085857e-15</v>
+        <v>-1.173664340318023e-15</v>
       </c>
       <c r="P2" t="n">
         <v>40.37362637362637</v>
@@ -633,10 +633,10 @@
         <v>1.649054303688258</v>
       </c>
       <c r="W2" t="n">
-        <v>46.7810494839922</v>
+        <v>46.78104107773623</v>
       </c>
       <c r="X2" t="n">
-        <v>1.540816001769935</v>
+        <v>1.54081176257241</v>
       </c>
       <c r="Y2" t="n">
         <v>91</v>
@@ -665,34 +665,34 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>-42.7576405194569</v>
+        <v>-42.75764056559434</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="I3" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3887175125327458</v>
+        <v>0.3887175379008647</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8559698347136063</v>
+        <v>0.855969857453437</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.1277753510607629</v>
+        <v>-0.1277753510578782</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02465180236006597</v>
+        <v>0.02465180236245446</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9846163042586346</v>
+        <v>0.9846163042303326</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03390329869083416</v>
+        <v>0.03390329871456902</v>
       </c>
       <c r="P3" t="n">
         <v>42.61111111111111</v>
@@ -716,10 +716,10 @@
         <v>1.812426099275795</v>
       </c>
       <c r="W3" t="n">
-        <v>42.7576405194569</v>
+        <v>42.75764056559434</v>
       </c>
       <c r="X3" t="n">
-        <v>1.268589229660801</v>
+        <v>1.268589251399812</v>
       </c>
       <c r="Y3" t="n">
         <v>90</v>
@@ -748,34 +748,34 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>-37.70504820814062</v>
+        <v>-37.70504924249847</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948968</v>
       </c>
       <c r="I4" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.01985976962800453</v>
+        <v>-0.01985914802348828</v>
       </c>
       <c r="K4" t="n">
-        <v>1.324637674246387</v>
+        <v>1.324637720839524</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.1488845550622892</v>
+        <v>-0.1488845550825973</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03429895534688322</v>
+        <v>0.03429895540504842</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9844780380063517</v>
+        <v>0.9844780375594492</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.1175845974044655</v>
+        <v>-0.117584596786113</v>
       </c>
       <c r="P4" t="n">
         <v>48.51351351351352</v>
@@ -799,10 +799,10 @@
         <v>1.918820594016122</v>
       </c>
       <c r="W4" t="n">
-        <v>37.70504820814062</v>
+        <v>37.70504924249847</v>
       </c>
       <c r="X4" t="n">
-        <v>1.760795982755531</v>
+        <v>1.760795995450162</v>
       </c>
       <c r="Y4" t="n">
         <v>74</v>
@@ -831,34 +831,34 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>-33.32121837054268</v>
+        <v>-33.32121836820485</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="I5" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.3373380353235204</v>
+        <v>-0.3373380358347286</v>
       </c>
       <c r="K5" t="n">
-        <v>1.006780692766075</v>
+        <v>1.006780692262029</v>
       </c>
       <c r="L5" t="n">
-        <v>-2.561514564022546e-14</v>
+        <v>-2.302462524943343e-15</v>
       </c>
       <c r="M5" t="n">
-        <v>3.867176849018653e-14</v>
+        <v>-2.10642314401854e-14</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7653683690131701</v>
+        <v>0.7653683690140985</v>
       </c>
       <c r="O5" t="n">
-        <v>-6.165238489900419e-15</v>
+        <v>1.080216996932585e-15</v>
       </c>
       <c r="P5" t="n">
         <v>50.4054054054054</v>
@@ -882,10 +882,10 @@
         <v>1.905772592216892</v>
       </c>
       <c r="W5" t="n">
-        <v>33.32121837054268</v>
+        <v>33.32121836820485</v>
       </c>
       <c r="X5" t="n">
-        <v>1.327860424771132</v>
+        <v>1.327860424234974</v>
       </c>
       <c r="Y5" t="n">
         <v>111</v>
@@ -914,34 +914,34 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>-29.23848896825249</v>
+        <v>-29.23848896918489</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01600227676446048</v>
+        <v>0.01600227698155643</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0543334886667961</v>
+        <v>-0.05433348849215153</v>
       </c>
       <c r="I6" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.8285332047494246</v>
+        <v>-0.8285332044365611</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9902493814348358</v>
+        <v>0.9902493815110698</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.06402229086600285</v>
+        <v>-0.06402229086595099</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.05280903699078286</v>
+        <v>-0.05280903699079316</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5662936690889556</v>
+        <v>0.566293669088435</v>
       </c>
       <c r="O6" t="n">
-        <v>0.04034678146422584</v>
+        <v>0.04034678146462285</v>
       </c>
       <c r="P6" t="n">
         <v>46.41621621621621</v>
@@ -965,10 +965,10 @@
         <v>1.973602029882339</v>
       </c>
       <c r="W6" t="n">
-        <v>29.23848896825249</v>
+        <v>29.23848896918489</v>
       </c>
       <c r="X6" t="n">
-        <v>1.190727813063695</v>
+        <v>1.190727813186925</v>
       </c>
       <c r="Y6" t="n">
         <v>185</v>
@@ -997,34 +997,34 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>-23.68956642519588</v>
+        <v>-23.68956651080723</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01384437554565771</v>
+        <v>0.01384439560607732</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05995687440136698</v>
+        <v>-0.05995685834723148</v>
       </c>
       <c r="I7" t="n">
-        <v>-22.86769729371632</v>
+        <v>-22.86769740813532</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.8218691314795636</v>
+        <v>-0.8218691026719145</v>
       </c>
       <c r="K7" t="n">
-        <v>1.022472109212309</v>
+        <v>1.022472131081726</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.03360220446269314</v>
+        <v>-0.03360220446403933</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.05519301817224197</v>
+        <v>-0.05519301817401696</v>
       </c>
       <c r="N7" t="n">
-        <v>0.4004220818194156</v>
+        <v>0.4004220817882737</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.0256711081644417</v>
+        <v>-0.02567110813719424</v>
       </c>
       <c r="P7" t="n">
         <v>45.86602870813397</v>
@@ -1048,10 +1048,10 @@
         <v>2.097663632659468</v>
       </c>
       <c r="W7" t="n">
-        <v>23.68956642519588</v>
+        <v>23.68956651080723</v>
       </c>
       <c r="X7" t="n">
-        <v>1.189810743798882</v>
+        <v>1.189810768252351</v>
       </c>
       <c r="Y7" t="n">
         <v>209</v>
@@ -1080,34 +1080,34 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>-19.07001529885284</v>
+        <v>-19.07001529770226</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.00524192363183366</v>
+        <v>-0.005241923893179587</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02237965419872463</v>
+        <v>0.02237965398160556</v>
       </c>
       <c r="I8" t="n">
-        <v>-18.20520397000869</v>
+        <v>-18.20520396847115</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.8648113288441593</v>
+        <v>-0.8648113292311166</v>
       </c>
       <c r="K8" t="n">
-        <v>1.01652269462598</v>
+        <v>1.016522694321147</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.03535433292678265</v>
+        <v>-0.03535433292676281</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.05516380501303635</v>
+        <v>-0.05516380501299482</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3076604877781542</v>
+        <v>0.3076604877783375</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.02915238829020128</v>
+        <v>-0.02915238829057362</v>
       </c>
       <c r="P8" t="n">
         <v>46.7688679245283</v>
@@ -1131,10 +1131,10 @@
         <v>2.192300582843065</v>
       </c>
       <c r="W8" t="n">
-        <v>19.07001529885284</v>
+        <v>19.07001529770226</v>
       </c>
       <c r="X8" t="n">
-        <v>1.237922929497126</v>
+        <v>1.237922929175592</v>
       </c>
       <c r="Y8" t="n">
         <v>212</v>
@@ -1163,34 +1163,34 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>-14.3278912679108</v>
+        <v>-14.32789144330287</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002177137551666867</v>
+        <v>0.002177178307251637</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04229329301962414</v>
+        <v>0.04229333118849485</v>
       </c>
       <c r="I9" t="n">
-        <v>-13.53538203551962</v>
+        <v>-13.53538230868667</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.79250923239118</v>
+        <v>-0.7925091346162054</v>
       </c>
       <c r="K9" t="n">
-        <v>1.006858599089531</v>
+        <v>1.006858630903416</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.03599861129105479</v>
+        <v>-0.03599861129301901</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.05566745867002652</v>
+        <v>-0.05566745867524377</v>
       </c>
       <c r="N9" t="n">
-        <v>0.3098639429796115</v>
+        <v>0.3098639430066285</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.05384774669747602</v>
+        <v>-0.05384774663476299</v>
       </c>
       <c r="P9" t="n">
         <v>46.01485148514851</v>
@@ -1214,10 +1214,10 @@
         <v>2.174881532219402</v>
       </c>
       <c r="W9" t="n">
-        <v>14.3278912679108</v>
+        <v>14.32789144330287</v>
       </c>
       <c r="X9" t="n">
-        <v>1.247317173216877</v>
+        <v>1.247317212276853</v>
       </c>
       <c r="Y9" t="n">
         <v>202</v>
@@ -1246,34 +1246,34 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="F10" t="n">
-        <v>-8.885939988281264</v>
+        <v>-8.88594053650395</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01106738553129996</v>
+        <v>-0.01106727985948869</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1136202201420725</v>
+        <v>0.1136203481625151</v>
       </c>
       <c r="I10" t="n">
-        <v>-8.412366102243347</v>
+        <v>-8.412366981061535</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.473573886037917</v>
+        <v>-0.4735735554424152</v>
       </c>
       <c r="K10" t="n">
-        <v>1.315717036203264</v>
+        <v>1.315717222743048</v>
       </c>
       <c r="L10" t="n">
-        <v>-1.270960461058019e-14</v>
+        <v>-6.073238317478727e-14</v>
       </c>
       <c r="M10" t="n">
-        <v>-3.736488242994336e-14</v>
+        <v>-1.611694438039154e-13</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2830465512209456</v>
+        <v>0.2830465517185867</v>
       </c>
       <c r="O10" t="n">
-        <v>5.733975386005221e-16</v>
+        <v>3.990272164976298e-16</v>
       </c>
       <c r="P10" t="n">
         <v>45.71176470588235</v>
@@ -1297,10 +1297,10 @@
         <v>2.211875773003908</v>
       </c>
       <c r="W10" t="n">
-        <v>8.885939988281264</v>
+        <v>8.88594053650395</v>
       </c>
       <c r="X10" t="n">
-        <v>1.594085552268866</v>
+        <v>1.594085802697625</v>
       </c>
       <c r="Y10" t="n">
         <v>170</v>
@@ -1329,34 +1329,34 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.403674727136886</v>
+        <v>-2.403674725193055</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04125131145916728</v>
+        <v>-0.04125131181063169</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1533494374243509</v>
+        <v>0.1533494369115584</v>
       </c>
       <c r="I11" t="n">
-        <v>-4.162115875665233</v>
+        <v>-4.162115872956935</v>
       </c>
       <c r="J11" t="n">
-        <v>1.758441148528347</v>
+        <v>1.758441147763881</v>
       </c>
       <c r="K11" t="n">
-        <v>2.772922467753708</v>
+        <v>2.772922467024307</v>
       </c>
       <c r="L11" t="n">
-        <v>-9.417855096818964e-14</v>
+        <v>-1.177354126684097e-13</v>
       </c>
       <c r="M11" t="n">
-        <v>-6.276729280256442e-14</v>
+        <v>-4.701003547288129e-14</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2613952901029113</v>
+        <v>0.2613952901026095</v>
       </c>
       <c r="O11" t="n">
-        <v>-2.300980361917423e-18</v>
+        <v>6.040073450033235e-18</v>
       </c>
       <c r="P11" t="n">
         <v>46.63730569948186</v>
@@ -1380,10 +1380,10 @@
         <v>2.218022423622763</v>
       </c>
       <c r="W11" t="n">
-        <v>2.403674727136886</v>
+        <v>2.403674725193055</v>
       </c>
       <c r="X11" t="n">
-        <v>3.024462069472408</v>
+        <v>3.024462068746194</v>
       </c>
       <c r="Y11" t="n">
         <v>193</v>
@@ -1412,34 +1412,34 @@
         <v>1.900000000000006</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.4996435109610917</v>
+        <v>-0.4996433959456442</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001824279837643241</v>
+        <v>0.001824256428774094</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.0484980112397529</v>
+        <v>-0.04849803204074326</v>
       </c>
       <c r="I12" t="n">
         <v>1.5</v>
       </c>
       <c r="J12" t="n">
-        <v>-1.999643510961092</v>
+        <v>-1.999643395945644</v>
       </c>
       <c r="K12" t="n">
-        <v>2.183680870107226</v>
+        <v>2.183680777091064</v>
       </c>
       <c r="L12" t="n">
-        <v>6.47630097698008e-15</v>
+        <v>3.671169994159026e-14</v>
       </c>
       <c r="M12" t="n">
-        <v>8.504684225381827e-14</v>
+        <v>2.819908658432032e-14</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2622789799551171</v>
+        <v>0.2622789799408968</v>
       </c>
       <c r="O12" t="n">
-        <v>5.088522196198634e-17</v>
+        <v>6.360652745248292e-17</v>
       </c>
       <c r="P12" t="n">
         <v>46.921875</v>
@@ -1463,10 +1463,10 @@
         <v>2.252451512934631</v>
       </c>
       <c r="W12" t="n">
-        <v>0.4996435109610917</v>
+        <v>0.4996433959456442</v>
       </c>
       <c r="X12" t="n">
-        <v>2.32765633317239</v>
+        <v>2.327656245585731</v>
       </c>
       <c r="Y12" t="n">
         <v>192</v>
@@ -1495,34 +1495,34 @@
         <v>6.900000000000007</v>
       </c>
       <c r="F13" t="n">
-        <v>4.071013322903455</v>
+        <v>4.071012797395597</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01024693172177785</v>
+        <v>-0.01024680555722295</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.06685350028273637</v>
+        <v>-0.06685340266617117</v>
       </c>
       <c r="I13" t="n">
-        <v>6.883590571785826</v>
+        <v>6.8835898764683</v>
       </c>
       <c r="J13" t="n">
-        <v>-2.812577248882372</v>
+        <v>-2.812577079072703</v>
       </c>
       <c r="K13" t="n">
-        <v>2.812577248882372</v>
+        <v>2.812577079072703</v>
       </c>
       <c r="L13" t="n">
-        <v>-2.445653498838521e-14</v>
+        <v>2.808864252301646e-14</v>
       </c>
       <c r="M13" t="n">
-        <v>3.271414147328616e-14</v>
+        <v>-1.288762378468946e-14</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2963278638433581</v>
+        <v>0.296327863963705</v>
       </c>
       <c r="O13" t="n">
-        <v>3.304849933767908e-16</v>
+        <v>-9.811273240873477e-17</v>
       </c>
       <c r="P13" t="n">
         <v>47.23255813953488</v>
@@ -1546,10 +1546,10 @@
         <v>2.121293918051583</v>
       </c>
       <c r="W13" t="n">
-        <v>-4.071013322903455</v>
+        <v>-4.071012797395597</v>
       </c>
       <c r="X13" t="n">
-        <v>3.065243124761411</v>
+        <v>3.065242972107874</v>
       </c>
       <c r="Y13" t="n">
         <v>43</v>
@@ -1578,34 +1578,34 @@
         <v>11.90000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>9.989504415066902</v>
+        <v>9.989504414062903</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.007359601509549474</v>
+        <v>-0.007359601331721075</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.05938080575868231</v>
+        <v>-0.05938080561582915</v>
       </c>
       <c r="I14" t="n">
-        <v>12.29422759822129</v>
+        <v>12.29422759721204</v>
       </c>
       <c r="J14" t="n">
-        <v>-2.304723183154384</v>
+        <v>-2.304723183149138</v>
       </c>
       <c r="K14" t="n">
-        <v>2.304723183154384</v>
+        <v>2.304723183149138</v>
       </c>
       <c r="L14" t="n">
-        <v>6.996646851630518e-14</v>
+        <v>-2.186325372880523e-14</v>
       </c>
       <c r="M14" t="n">
-        <v>-9.28744260984506e-15</v>
+        <v>6.231233477922597e-14</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2053988427782835</v>
+        <v>0.2053988427794398</v>
       </c>
       <c r="O14" t="n">
-        <v>1.773154272983063e-15</v>
+        <v>4.131310678172458e-16</v>
       </c>
       <c r="P14" t="n">
         <v>59.57692307692308</v>
@@ -1629,10 +1629,10 @@
         <v>2.175818186810448</v>
       </c>
       <c r="W14" t="n">
-        <v>-9.989504415066902</v>
+        <v>-9.989504414062903</v>
       </c>
       <c r="X14" t="n">
-        <v>2.407594296471309</v>
+        <v>2.40759429662027</v>
       </c>
       <c r="Y14" t="n">
         <v>26</v>
@@ -1661,34 +1661,34 @@
         <v>16.90000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>14.66440907913728</v>
+        <v>14.66441515999736</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.009826763377500766</v>
+        <v>-0.009828890673531106</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.05093245158564415</v>
+        <v>-0.05093415708189181</v>
       </c>
       <c r="I15" t="n">
-        <v>17.00708776609422</v>
+        <v>17.00709991497616</v>
       </c>
       <c r="J15" t="n">
-        <v>-2.342678686956939</v>
+        <v>-2.342684754978804</v>
       </c>
       <c r="K15" t="n">
-        <v>2.342678686956939</v>
+        <v>2.342684754978804</v>
       </c>
       <c r="L15" t="n">
-        <v>3.730426461561681e-14</v>
+        <v>7.879499521992431e-16</v>
       </c>
       <c r="M15" t="n">
-        <v>-6.158644196470793e-14</v>
+        <v>-4.263420249555555e-14</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2827576895299938</v>
+        <v>0.2827576940543465</v>
       </c>
       <c r="O15" t="n">
-        <v>5.566534887356688e-16</v>
+        <v>-7.956598343146956e-16</v>
       </c>
       <c r="P15" t="n">
         <v>43.36111111111111</v>
@@ -1712,10 +1712,10 @@
         <v>2.052784536617426</v>
       </c>
       <c r="W15" t="n">
-        <v>-14.66440907913728</v>
+        <v>-14.66441515999736</v>
       </c>
       <c r="X15" t="n">
-        <v>2.501518632137298</v>
+        <v>2.501525185686531</v>
       </c>
       <c r="Y15" t="n">
         <v>36</v>
@@ -1744,34 +1744,34 @@
         <v>26.90000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>26.46734442116534</v>
+        <v>26.46734442023143</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.0198440218284756</v>
+        <v>-0.01984402157891904</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.03645144604519435</v>
+        <v>-0.03645144584507054</v>
       </c>
       <c r="I16" t="n">
-        <v>27.84518183438559</v>
+        <v>27.84518183297603</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.37783741322025</v>
+        <v>-1.377837412744594</v>
       </c>
       <c r="K16" t="n">
-        <v>1.37783741322025</v>
+        <v>1.377837412744594</v>
       </c>
       <c r="L16" t="n">
-        <v>-4.263056254159527e-14</v>
+        <v>1.333678093176424e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>-1.530399738560216e-14</v>
+        <v>-6.449541755360909e-14</v>
       </c>
       <c r="N16" t="n">
-        <v>0.3623664525288536</v>
+        <v>0.3623664525288862</v>
       </c>
       <c r="O16" t="n">
-        <v>-9.586348808782602e-16</v>
+        <v>2.459571008400347e-15</v>
       </c>
       <c r="P16" t="n">
         <v>46.61538461538461</v>
@@ -1795,10 +1795,10 @@
         <v>1.962357260621082</v>
       </c>
       <c r="W16" t="n">
-        <v>-26.46734442116534</v>
+        <v>-26.46734442023143</v>
       </c>
       <c r="X16" t="n">
-        <v>1.48283339331107</v>
+        <v>1.482833392791681</v>
       </c>
       <c r="Y16" t="n">
         <v>26</v>
@@ -1827,34 +1827,34 @@
         <v>31.90000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>30.39437409025309</v>
+        <v>30.3943740891128</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01700462157504085</v>
+        <v>-0.01700462130075263</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.02774809075181531</v>
+        <v>-0.02774809052601302</v>
       </c>
       <c r="I17" t="n">
-        <v>32.63277172314477</v>
+        <v>32.63277172154561</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.238397632891676</v>
+        <v>-2.23839763243281</v>
       </c>
       <c r="K17" t="n">
-        <v>2.238397632891676</v>
+        <v>2.23839763243281</v>
       </c>
       <c r="L17" t="n">
-        <v>-4.925550360227969e-14</v>
+        <v>-4.615188765825237e-14</v>
       </c>
       <c r="M17" t="n">
-        <v>5.235077200476847e-14</v>
+        <v>1.022473667972076e-13</v>
       </c>
       <c r="N17" t="n">
-        <v>0.3769481611142121</v>
+        <v>0.3769481611143064</v>
       </c>
       <c r="O17" t="n">
-        <v>-4.21049995203706e-15</v>
+        <v>1.706237490476556e-15</v>
       </c>
       <c r="P17" t="n">
         <v>44.18045112781955</v>
@@ -1878,10 +1878,10 @@
         <v>1.880749718951677</v>
       </c>
       <c r="W17" t="n">
-        <v>-30.39437409025309</v>
+        <v>-30.3943740891128</v>
       </c>
       <c r="X17" t="n">
-        <v>2.423900619245131</v>
+        <v>2.423900618835324</v>
       </c>
       <c r="Y17" t="n">
         <v>133</v>
@@ -1910,34 +1910,34 @@
         <v>36.90000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>35.18857371178859</v>
+        <v>35.1885723537268</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01865987549203853</v>
+        <v>-0.01865959589920772</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.02945354722412365</v>
+        <v>-0.02945332112254317</v>
       </c>
       <c r="I18" t="n">
-        <v>37.69291482618024</v>
+        <v>37.69291322976678</v>
       </c>
       <c r="J18" t="n">
-        <v>-2.504341114391654</v>
+        <v>-2.50434087603997</v>
       </c>
       <c r="K18" t="n">
-        <v>2.504341114391654</v>
+        <v>2.50434087603997</v>
       </c>
       <c r="L18" t="n">
-        <v>0.002977599298346717</v>
+        <v>0.002977599303517803</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.02604119031719192</v>
+        <v>-0.02604119031481698</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5114478402646832</v>
+        <v>0.5114478401933084</v>
       </c>
       <c r="O18" t="n">
-        <v>0.02332789570245724</v>
+        <v>0.02332789579069429</v>
       </c>
       <c r="P18" t="n">
         <v>48.83458646616541</v>
@@ -1961,10 +1961,10 @@
         <v>1.911785546773423</v>
       </c>
       <c r="W18" t="n">
-        <v>-35.18857371178859</v>
+        <v>-35.1885723537268</v>
       </c>
       <c r="X18" t="n">
-        <v>2.731251337935985</v>
+        <v>2.731251193496248</v>
       </c>
       <c r="Y18" t="n">
         <v>133</v>
@@ -1993,34 +1993,34 @@
         <v>41.90000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>40.00436922786663</v>
+        <v>40.00436921920624</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01676473370928322</v>
+        <v>-0.01676473170479799</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0004251725020021173</v>
+        <v>0.0004251741114202026</v>
       </c>
       <c r="I19" t="n">
-        <v>42.43896635786599</v>
+        <v>42.43896634641209</v>
       </c>
       <c r="J19" t="n">
-        <v>-2.434597129999358</v>
+        <v>-2.434597127205848</v>
       </c>
       <c r="K19" t="n">
-        <v>2.609398953426831</v>
+        <v>2.609398951155112</v>
       </c>
       <c r="L19" t="n">
-        <v>4.368800642888453e-14</v>
+        <v>4.851225937254238e-14</v>
       </c>
       <c r="M19" t="n">
-        <v>2.086885384633753e-16</v>
+        <v>-3.899303603480475e-14</v>
       </c>
       <c r="N19" t="n">
-        <v>0.6162936407851376</v>
+        <v>0.6162936407853448</v>
       </c>
       <c r="O19" t="n">
-        <v>8.547882535459851e-16</v>
+        <v>4.167092736036678e-15</v>
       </c>
       <c r="P19" t="n">
         <v>46.7593984962406</v>
@@ -2044,10 +2044,10 @@
         <v>2.025896163849322</v>
       </c>
       <c r="W19" t="n">
-        <v>-40.00436922786663</v>
+        <v>-40.00436921920624</v>
       </c>
       <c r="X19" t="n">
-        <v>2.841120309147487</v>
+        <v>2.84112030677743</v>
       </c>
       <c r="Y19" t="n">
         <v>133</v>
@@ -2076,34 +2076,34 @@
         <v>46.90000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>44.90510410358235</v>
+        <v>44.90511154401112</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.002183831943816201</v>
+        <v>-0.002185766350433432</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.01006850280493628</v>
+        <v>-0.01007005633392401</v>
       </c>
       <c r="I20" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="J20" t="n">
-        <v>-2.833950529538399</v>
+        <v>-2.833954133419538</v>
       </c>
       <c r="K20" t="n">
-        <v>2.844235818240607</v>
+        <v>2.844239383297223</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.01826840774821224</v>
+        <v>-0.01826840718874933</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.05591448687925252</v>
+        <v>-0.05591448696540189</v>
       </c>
       <c r="N20" t="n">
-        <v>0.7655913322998338</v>
+        <v>0.7655913299218574</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01162849823495841</v>
+        <v>0.01162849610373367</v>
       </c>
       <c r="P20" t="n">
         <v>45.06611570247934</v>
@@ -2127,10 +2127,10 @@
         <v>1.914697089572389</v>
       </c>
       <c r="W20" t="n">
-        <v>-44.90510410358235</v>
+        <v>-44.90511154401112</v>
       </c>
       <c r="X20" t="n">
-        <v>3.059728256020919</v>
+        <v>3.059731977849907</v>
       </c>
       <c r="Y20" t="n">
         <v>121</v>
@@ -2159,34 +2159,34 @@
         <v>51.90000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>50.02765843598628</v>
+        <v>50.02765893785043</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.01473220053476121</v>
+        <v>-0.01473230114615368</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01242665459990214</v>
+        <v>0.01242657371393309</v>
       </c>
       <c r="I21" t="n">
-        <v>53.27214888613017</v>
+        <v>53.27214946097494</v>
       </c>
       <c r="J21" t="n">
-        <v>-3.244490450143885</v>
+        <v>-3.244490523124507</v>
       </c>
       <c r="K21" t="n">
-        <v>3.244490450143885</v>
+        <v>3.244490523124507</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0722882421847421</v>
+        <v>0.07228824218902448</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.01033030816089799</v>
+        <v>-0.01033030816239672</v>
       </c>
       <c r="N21" t="n">
-        <v>0.8216708208509477</v>
+        <v>0.8216708207440903</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.1805640877323302</v>
+        <v>-0.1805640876199666</v>
       </c>
       <c r="P21" t="n">
         <v>50.48</v>
@@ -2210,10 +2210,10 @@
         <v>1.75735198767194</v>
       </c>
       <c r="W21" t="n">
-        <v>-50.02765843598628</v>
+        <v>-50.02765893785043</v>
       </c>
       <c r="X21" t="n">
-        <v>3.378365392824142</v>
+        <v>3.378365485212437</v>
       </c>
       <c r="Y21" t="n">
         <v>125</v>

--- a/publication/analyses/outputs/rmse_z/gdptlab_bin-z_rmse-z.xlsx
+++ b/publication/analyses/outputs/rmse_z/gdptlab_bin-z_rmse-z.xlsx
@@ -582,34 +582,34 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>-46.78104107773623</v>
+        <v>-46.78104107592967</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="I2" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="J2" t="n">
-        <v>1.027242206660971</v>
+        <v>1.027242205882192</v>
       </c>
       <c r="K2" t="n">
-        <v>1.127914483626852</v>
+        <v>1.12791448280241</v>
       </c>
       <c r="L2" t="n">
-        <v>-5.874177823038686e-14</v>
+        <v>-2.630618555710728e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>3.749625762508743e-14</v>
+        <v>-5.495481969364346e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9497771477269096</v>
+        <v>0.9497771477280497</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.173664340318023e-15</v>
+        <v>-8.420614632926187e-15</v>
       </c>
       <c r="P2" t="n">
         <v>40.37362637362637</v>
@@ -633,10 +633,10 @@
         <v>1.649054303688258</v>
       </c>
       <c r="W2" t="n">
-        <v>46.78104107773623</v>
+        <v>46.78104107592967</v>
       </c>
       <c r="X2" t="n">
-        <v>1.54081176257241</v>
+        <v>1.540811761670725</v>
       </c>
       <c r="Y2" t="n">
         <v>91</v>
@@ -665,34 +665,34 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>-42.75764056559434</v>
+        <v>-42.75764073596907</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="I3" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3887175379008647</v>
+        <v>0.3887176325342123</v>
       </c>
       <c r="K3" t="n">
-        <v>0.855969857453437</v>
+        <v>0.8559699415614582</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.1277753510578782</v>
+        <v>-0.1277753510470411</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02465180236245446</v>
+        <v>0.02465180237101079</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9846163042303326</v>
+        <v>0.9846163041258424</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03390329871456902</v>
+        <v>0.03390329880228021</v>
       </c>
       <c r="P3" t="n">
         <v>42.61111111111111</v>
@@ -716,10 +716,10 @@
         <v>1.812426099275795</v>
       </c>
       <c r="W3" t="n">
-        <v>42.75764056559434</v>
+        <v>42.75764073596907</v>
       </c>
       <c r="X3" t="n">
-        <v>1.268589251399812</v>
+        <v>1.268589331988129</v>
       </c>
       <c r="Y3" t="n">
         <v>90</v>
@@ -748,34 +748,34 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>-37.70504924249847</v>
+        <v>-37.70504943973167</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.05464225125948968</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="I4" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.01985914802348828</v>
+        <v>-0.01985902596229788</v>
       </c>
       <c r="K4" t="n">
-        <v>1.324637720839524</v>
+        <v>1.324637729415596</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.1488845550825973</v>
+        <v>-0.1488845550864414</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03429895540504842</v>
+        <v>0.03429895541614894</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9844780375594492</v>
+        <v>0.9844780374739875</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.117584596786113</v>
+        <v>-0.117584596668577</v>
       </c>
       <c r="P4" t="n">
         <v>48.51351351351352</v>
@@ -799,10 +799,10 @@
         <v>1.918820594016122</v>
       </c>
       <c r="W4" t="n">
-        <v>37.70504924249847</v>
+        <v>37.70504943973167</v>
       </c>
       <c r="X4" t="n">
-        <v>1.760795995450162</v>
+        <v>1.760795998073944</v>
       </c>
       <c r="Y4" t="n">
         <v>74</v>
@@ -831,34 +831,34 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>-33.32121836820485</v>
+        <v>-33.32122015585868</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205194</v>
       </c>
       <c r="I5" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.3373380358347286</v>
+        <v>-0.3373376362064186</v>
       </c>
       <c r="K5" t="n">
-        <v>1.006780692262029</v>
+        <v>1.006781072102104</v>
       </c>
       <c r="L5" t="n">
-        <v>-2.302462524943343e-15</v>
+        <v>1.921586013432298e-14</v>
       </c>
       <c r="M5" t="n">
-        <v>-2.10642314401854e-14</v>
+        <v>-3.836770740956847e-15</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7653683690140985</v>
+        <v>0.7653683682864654</v>
       </c>
       <c r="O5" t="n">
-        <v>1.080216996932585e-15</v>
+        <v>2.548511952022431e-15</v>
       </c>
       <c r="P5" t="n">
         <v>50.4054054054054</v>
@@ -882,10 +882,10 @@
         <v>1.905772592216892</v>
       </c>
       <c r="W5" t="n">
-        <v>33.32121836820485</v>
+        <v>33.32122015585868</v>
       </c>
       <c r="X5" t="n">
-        <v>1.327860424234974</v>
+        <v>1.327860830691999</v>
       </c>
       <c r="Y5" t="n">
         <v>111</v>
@@ -914,34 +914,34 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>-29.23848896918489</v>
+        <v>-29.23849398868272</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01600227698155643</v>
+        <v>0.01600344891941214</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.05433348849215153</v>
+        <v>-0.05433255226452423</v>
       </c>
       <c r="I6" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.8285332044365611</v>
+        <v>-0.8285315482742536</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9902493815110698</v>
+        <v>0.9902498108892867</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.06402229086595099</v>
+        <v>-0.06402229089217601</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.05280903699079316</v>
+        <v>-0.05280903699679618</v>
       </c>
       <c r="N6" t="n">
-        <v>0.566293669088435</v>
+        <v>0.566293666394712</v>
       </c>
       <c r="O6" t="n">
-        <v>0.04034678146462285</v>
+        <v>0.04034678363709383</v>
       </c>
       <c r="P6" t="n">
         <v>46.41621621621621</v>
@@ -965,10 +965,10 @@
         <v>1.973602029882339</v>
       </c>
       <c r="W6" t="n">
-        <v>29.23848896918489</v>
+        <v>29.23849398868272</v>
       </c>
       <c r="X6" t="n">
-        <v>1.190727813186925</v>
+        <v>1.190728493321646</v>
       </c>
       <c r="Y6" t="n">
         <v>185</v>
@@ -997,34 +997,34 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>-23.68956651080723</v>
+        <v>-23.68956645531443</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01384439560607732</v>
+        <v>0.01384438262204494</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05995685834723148</v>
+        <v>-0.05995686877634833</v>
       </c>
       <c r="I7" t="n">
-        <v>-22.86769740813532</v>
+        <v>-22.86769733400464</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.8218691026719145</v>
+        <v>-0.8218691213097953</v>
       </c>
       <c r="K7" t="n">
-        <v>1.022472131081726</v>
+        <v>1.022472116867628</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.03360220446403933</v>
+        <v>-0.03360220446313718</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.05519301817401696</v>
+        <v>-0.05519301817287064</v>
       </c>
       <c r="N7" t="n">
-        <v>0.4004220817882737</v>
+        <v>0.4004220818085283</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.02567110813719424</v>
+        <v>-0.02567110815486684</v>
       </c>
       <c r="P7" t="n">
         <v>45.86602870813397</v>
@@ -1048,10 +1048,10 @@
         <v>2.097663632659468</v>
       </c>
       <c r="W7" t="n">
-        <v>23.68956651080723</v>
+        <v>23.68956645531443</v>
       </c>
       <c r="X7" t="n">
-        <v>1.189810768252351</v>
+        <v>1.189810752349213</v>
       </c>
       <c r="Y7" t="n">
         <v>209</v>
@@ -1080,34 +1080,34 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>-19.07001529770226</v>
+        <v>-19.07001529540885</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.005241923893179587</v>
+        <v>-0.005241924419618858</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02237965398160556</v>
+        <v>0.02237965355604346</v>
       </c>
       <c r="I8" t="n">
-        <v>-18.20520396847115</v>
+        <v>-18.20520396538731</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.8648113292311166</v>
+        <v>-0.8648113300215464</v>
       </c>
       <c r="K8" t="n">
-        <v>1.016522694321147</v>
+        <v>1.016522693733872</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.03535433292676281</v>
+        <v>-0.0353543329267317</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.05516380501299482</v>
+        <v>-0.05516380501292447</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3076604877783375</v>
+        <v>0.3076604877787303</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.02915238829057362</v>
+        <v>-0.02915238829131028</v>
       </c>
       <c r="P8" t="n">
         <v>46.7688679245283</v>
@@ -1131,10 +1131,10 @@
         <v>2.192300582843065</v>
       </c>
       <c r="W8" t="n">
-        <v>19.07001529770226</v>
+        <v>19.07001529540885</v>
       </c>
       <c r="X8" t="n">
-        <v>1.237922929175592</v>
+        <v>1.237922928564383</v>
       </c>
       <c r="Y8" t="n">
         <v>212</v>
@@ -1163,34 +1163,34 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>-14.32789144330287</v>
+        <v>-14.32789147736862</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002177178307251637</v>
+        <v>0.002177186210153733</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04229333118849485</v>
+        <v>0.04229333861998345</v>
       </c>
       <c r="I9" t="n">
-        <v>-13.53538230868667</v>
+        <v>-13.53538236173275</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.7925091346162054</v>
+        <v>-0.7925091156358709</v>
       </c>
       <c r="K9" t="n">
-        <v>1.006858630903416</v>
+        <v>1.006858637118828</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.03599861129301901</v>
+        <v>-0.03599861129348868</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.05566745867524377</v>
+        <v>-0.0556674586761929</v>
       </c>
       <c r="N9" t="n">
-        <v>0.3098639430066285</v>
+        <v>0.3098639430118878</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.05384774663476299</v>
+        <v>-0.05384774662257306</v>
       </c>
       <c r="P9" t="n">
         <v>46.01485148514851</v>
@@ -1214,10 +1214,10 @@
         <v>2.174881532219402</v>
       </c>
       <c r="W9" t="n">
-        <v>14.32789144330287</v>
+        <v>14.32789147736862</v>
       </c>
       <c r="X9" t="n">
-        <v>1.247317212276853</v>
+        <v>1.247317219916499</v>
       </c>
       <c r="Y9" t="n">
         <v>202</v>
@@ -1246,34 +1246,34 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="F10" t="n">
-        <v>-8.88594053650395</v>
+        <v>-8.885939981830697</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01106727985948869</v>
+        <v>-0.0110673867745633</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1136203481625151</v>
+        <v>0.1136202186356222</v>
       </c>
       <c r="I10" t="n">
-        <v>-8.412366981061535</v>
+        <v>-8.412366091911087</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.4735735554424152</v>
+        <v>-0.4735738899196109</v>
       </c>
       <c r="K10" t="n">
-        <v>1.315717222743048</v>
+        <v>1.31571703400608</v>
       </c>
       <c r="L10" t="n">
-        <v>-6.073238317478727e-14</v>
+        <v>6.11063487391849e-14</v>
       </c>
       <c r="M10" t="n">
-        <v>-1.611694438039154e-13</v>
+        <v>-9.889213630993468e-14</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2830465517185867</v>
+        <v>0.2830465512150796</v>
       </c>
       <c r="O10" t="n">
-        <v>3.990272164976298e-16</v>
+        <v>3.095563021601907e-16</v>
       </c>
       <c r="P10" t="n">
         <v>45.71176470588235</v>
@@ -1297,10 +1297,10 @@
         <v>2.211875773003908</v>
       </c>
       <c r="W10" t="n">
-        <v>8.88594053650395</v>
+        <v>8.885939981830697</v>
       </c>
       <c r="X10" t="n">
-        <v>1.594085802697625</v>
+        <v>1.594085549319341</v>
       </c>
       <c r="Y10" t="n">
         <v>170</v>
@@ -1329,34 +1329,34 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.403674725193055</v>
+        <v>-2.40367472722986</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04125131181063169</v>
+        <v>-0.04125131144133461</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1533494369115584</v>
+        <v>0.153349437447615</v>
       </c>
       <c r="I11" t="n">
-        <v>-4.162115872956935</v>
+        <v>-4.162115875790267</v>
       </c>
       <c r="J11" t="n">
-        <v>1.758441147763881</v>
+        <v>1.758441148560407</v>
       </c>
       <c r="K11" t="n">
-        <v>2.772922467024307</v>
+        <v>2.772922467784049</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.177354126684097e-13</v>
+        <v>-1.021681300298574e-13</v>
       </c>
       <c r="M11" t="n">
-        <v>-4.701003547288129e-14</v>
+        <v>4.931072821225347e-15</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2613952901026095</v>
+        <v>0.2613952901029398</v>
       </c>
       <c r="O11" t="n">
-        <v>6.040073450033235e-18</v>
+        <v>2.57997423079991e-16</v>
       </c>
       <c r="P11" t="n">
         <v>46.63730569948186</v>
@@ -1380,10 +1380,10 @@
         <v>2.218022423622763</v>
       </c>
       <c r="W11" t="n">
-        <v>2.403674725193055</v>
+        <v>2.40367472722986</v>
       </c>
       <c r="X11" t="n">
-        <v>3.024462068746194</v>
+        <v>3.024462069502341</v>
       </c>
       <c r="Y11" t="n">
         <v>193</v>
@@ -1412,34 +1412,34 @@
         <v>1.900000000000006</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.4996433959456442</v>
+        <v>-0.4996433475975668</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001824256428774094</v>
+        <v>0.001824246026339874</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.04849803204074326</v>
+        <v>-0.048498040166522</v>
       </c>
       <c r="I12" t="n">
         <v>1.5</v>
       </c>
       <c r="J12" t="n">
-        <v>-1.999643395945644</v>
+        <v>-1.999643347597567</v>
       </c>
       <c r="K12" t="n">
-        <v>2.183680777091064</v>
+        <v>2.18368073781493</v>
       </c>
       <c r="L12" t="n">
-        <v>3.671169994159026e-14</v>
+        <v>-2.17988604597763e-14</v>
       </c>
       <c r="M12" t="n">
-        <v>2.819908658432032e-14</v>
+        <v>6.157686484551765e-14</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2622789799408968</v>
+        <v>0.2622789799351702</v>
       </c>
       <c r="O12" t="n">
-        <v>6.360652745248292e-17</v>
+        <v>5.204170427930421e-17</v>
       </c>
       <c r="P12" t="n">
         <v>46.921875</v>
@@ -1463,10 +1463,10 @@
         <v>2.252451512934631</v>
       </c>
       <c r="W12" t="n">
-        <v>0.4996433959456442</v>
+        <v>0.4996433475975668</v>
       </c>
       <c r="X12" t="n">
-        <v>2.327656245585731</v>
+        <v>2.327656208521089</v>
       </c>
       <c r="Y12" t="n">
         <v>192</v>
@@ -1495,34 +1495,34 @@
         <v>6.900000000000007</v>
       </c>
       <c r="F13" t="n">
-        <v>4.071012797395597</v>
+        <v>4.071013323332962</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01024680555722295</v>
+        <v>-0.01024693182467449</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.06685340266617117</v>
+        <v>-0.06685350036283531</v>
       </c>
       <c r="I13" t="n">
-        <v>6.8835898764683</v>
+        <v>6.883590572356014</v>
       </c>
       <c r="J13" t="n">
-        <v>-2.812577079072703</v>
+        <v>-2.812577249023053</v>
       </c>
       <c r="K13" t="n">
-        <v>2.812577079072703</v>
+        <v>2.812577249023053</v>
       </c>
       <c r="L13" t="n">
-        <v>2.808864252301646e-14</v>
+        <v>-1.817215628620467e-14</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.288762378468946e-14</v>
+        <v>-1.950127720805425e-14</v>
       </c>
       <c r="N13" t="n">
-        <v>0.296327863963705</v>
+        <v>0.2963278638432872</v>
       </c>
       <c r="O13" t="n">
-        <v>-9.811273240873477e-17</v>
+        <v>-6.97116782904168e-16</v>
       </c>
       <c r="P13" t="n">
         <v>47.23255813953488</v>
@@ -1546,10 +1546,10 @@
         <v>2.121293918051583</v>
       </c>
       <c r="W13" t="n">
-        <v>-4.071012797395597</v>
+        <v>-4.071013323332962</v>
       </c>
       <c r="X13" t="n">
-        <v>3.065242972107874</v>
+        <v>3.065243124887398</v>
       </c>
       <c r="Y13" t="n">
         <v>43</v>
@@ -1578,34 +1578,34 @@
         <v>11.90000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>9.989504414062903</v>
+        <v>9.989503085677578</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.007359601331721075</v>
+        <v>-0.007359365511473204</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.05938080561582915</v>
+        <v>-0.05938061845973301</v>
       </c>
       <c r="I14" t="n">
-        <v>12.29422759721204</v>
+        <v>12.29422626908773</v>
       </c>
       <c r="J14" t="n">
-        <v>-2.304723183149138</v>
+        <v>-2.30472318341015</v>
       </c>
       <c r="K14" t="n">
-        <v>2.304723183149138</v>
+        <v>2.30472318341015</v>
       </c>
       <c r="L14" t="n">
-        <v>-2.186325372880523e-14</v>
+        <v>9.181918046398716e-14</v>
       </c>
       <c r="M14" t="n">
-        <v>6.231233477922597e-14</v>
+        <v>-2.07675756933248e-14</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2053988427794398</v>
+        <v>0.205398844308069</v>
       </c>
       <c r="O14" t="n">
-        <v>4.131310678172458e-16</v>
+        <v>1.379238603668945e-15</v>
       </c>
       <c r="P14" t="n">
         <v>59.57692307692308</v>
@@ -1629,10 +1629,10 @@
         <v>2.175818186810448</v>
       </c>
       <c r="W14" t="n">
-        <v>-9.989504414062903</v>
+        <v>-9.989503085677578</v>
       </c>
       <c r="X14" t="n">
-        <v>2.40759429662027</v>
+        <v>2.407594499184964</v>
       </c>
       <c r="Y14" t="n">
         <v>26</v>
@@ -1661,34 +1661,34 @@
         <v>16.90000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>14.66441515999736</v>
+        <v>14.66441515908944</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.009828890673531106</v>
+        <v>-0.009828890355805593</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.05093415708189181</v>
+        <v>-0.05093415682757337</v>
       </c>
       <c r="I15" t="n">
-        <v>17.00709991497616</v>
+        <v>17.0070999131628</v>
       </c>
       <c r="J15" t="n">
-        <v>-2.342684754978804</v>
+        <v>-2.342684754073356</v>
       </c>
       <c r="K15" t="n">
-        <v>2.342684754978804</v>
+        <v>2.342684754073356</v>
       </c>
       <c r="L15" t="n">
-        <v>7.879499521992431e-16</v>
+        <v>1.177298999029593e-15</v>
       </c>
       <c r="M15" t="n">
-        <v>-4.263420249555555e-14</v>
+        <v>-5.842548667089886e-14</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2827576940543465</v>
+        <v>0.2827576940535892</v>
       </c>
       <c r="O15" t="n">
-        <v>-7.956598343146956e-16</v>
+        <v>-1.272130549049659e-15</v>
       </c>
       <c r="P15" t="n">
         <v>43.36111111111111</v>
@@ -1712,10 +1712,10 @@
         <v>2.052784536617426</v>
       </c>
       <c r="W15" t="n">
-        <v>-14.66441515999736</v>
+        <v>-14.66441515908944</v>
       </c>
       <c r="X15" t="n">
-        <v>2.501525185686531</v>
+        <v>2.501525184708264</v>
       </c>
       <c r="Y15" t="n">
         <v>36</v>
@@ -1744,34 +1744,34 @@
         <v>26.90000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>26.46734442023143</v>
+        <v>26.46734442212452</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.01984402157891904</v>
+        <v>-0.01984402208628273</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.03645144584507054</v>
+        <v>-0.03645144624804719</v>
       </c>
       <c r="I16" t="n">
-        <v>27.84518183297603</v>
+        <v>27.8451818358611</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.377837412744594</v>
+        <v>-1.377837413736591</v>
       </c>
       <c r="K16" t="n">
-        <v>1.377837412744594</v>
+        <v>1.377837413736591</v>
       </c>
       <c r="L16" t="n">
-        <v>1.333678093176424e-13</v>
+        <v>-1.858355883707e-14</v>
       </c>
       <c r="M16" t="n">
-        <v>-6.449541755360909e-14</v>
+        <v>2.076117056049043e-14</v>
       </c>
       <c r="N16" t="n">
-        <v>0.3623664525288862</v>
+        <v>0.3623664525288454</v>
       </c>
       <c r="O16" t="n">
-        <v>2.459571008400347e-15</v>
+        <v>-4.353355283097489e-15</v>
       </c>
       <c r="P16" t="n">
         <v>46.61538461538461</v>
@@ -1795,10 +1795,10 @@
         <v>1.962357260621082</v>
       </c>
       <c r="W16" t="n">
-        <v>-26.46734442023143</v>
+        <v>-26.46734442212452</v>
       </c>
       <c r="X16" t="n">
-        <v>1.482833392791681</v>
+        <v>1.482833393871802</v>
       </c>
       <c r="Y16" t="n">
         <v>26</v>
@@ -1827,34 +1827,34 @@
         <v>31.90000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>30.3943740891128</v>
+        <v>30.39437077425498</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01700462130075263</v>
+        <v>-0.01700381395843612</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.02774809052601302</v>
+        <v>-0.02774744443859951</v>
       </c>
       <c r="I17" t="n">
-        <v>32.63277172154561</v>
+        <v>32.63276711592759</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.23839763243281</v>
+        <v>-2.238396341672609</v>
       </c>
       <c r="K17" t="n">
-        <v>2.23839763243281</v>
+        <v>2.238396341672609</v>
       </c>
       <c r="L17" t="n">
-        <v>-4.615188765825237e-14</v>
+        <v>-1.682864374168658e-14</v>
       </c>
       <c r="M17" t="n">
-        <v>1.022473667972076e-13</v>
+        <v>1.207388408133704e-13</v>
       </c>
       <c r="N17" t="n">
-        <v>0.3769481611143064</v>
+        <v>0.3769481614465987</v>
       </c>
       <c r="O17" t="n">
-        <v>1.706237490476556e-15</v>
+        <v>3.823174024649035e-16</v>
       </c>
       <c r="P17" t="n">
         <v>44.18045112781955</v>
@@ -1878,10 +1878,10 @@
         <v>1.880749718951677</v>
       </c>
       <c r="W17" t="n">
-        <v>-30.3943740891128</v>
+        <v>-30.39437077425498</v>
       </c>
       <c r="X17" t="n">
-        <v>2.423900618835324</v>
+        <v>2.423899455256972</v>
       </c>
       <c r="Y17" t="n">
         <v>133</v>
@@ -1910,34 +1910,34 @@
         <v>36.90000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>35.1885723537268</v>
+        <v>35.18858345936295</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01865959589920772</v>
+        <v>-0.01866188822076622</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.02945332112254317</v>
+        <v>-0.02945516246923803</v>
       </c>
       <c r="I18" t="n">
-        <v>37.69291322976678</v>
+        <v>37.69292631788438</v>
       </c>
       <c r="J18" t="n">
-        <v>-2.50434087603997</v>
+        <v>-2.504342858521424</v>
       </c>
       <c r="K18" t="n">
-        <v>2.50434087603997</v>
+        <v>2.504342858521424</v>
       </c>
       <c r="L18" t="n">
-        <v>0.002977599303517803</v>
+        <v>0.002977599260659729</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.02604119031481698</v>
+        <v>-0.02604119033397846</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5114478401933084</v>
+        <v>0.5114478407681381</v>
       </c>
       <c r="O18" t="n">
-        <v>0.02332789579069429</v>
+        <v>0.02332789507293636</v>
       </c>
       <c r="P18" t="n">
         <v>48.83458646616541</v>
@@ -1961,10 +1961,10 @@
         <v>1.911785546773423</v>
       </c>
       <c r="W18" t="n">
-        <v>-35.1885723537268</v>
+        <v>-35.18858345936295</v>
       </c>
       <c r="X18" t="n">
-        <v>2.731251193496248</v>
+        <v>2.731252412305977</v>
       </c>
       <c r="Y18" t="n">
         <v>133</v>
@@ -1993,34 +1993,34 @@
         <v>41.90000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>40.00436921920624</v>
+        <v>40.00436922002462</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01676473170479799</v>
+        <v>-0.01676473189045352</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0004251741114202026</v>
+        <v>0.0004251739552818418</v>
       </c>
       <c r="I19" t="n">
-        <v>42.43896634641209</v>
+        <v>42.43896634748509</v>
       </c>
       <c r="J19" t="n">
-        <v>-2.434597127205848</v>
+        <v>-2.434597127460468</v>
       </c>
       <c r="K19" t="n">
-        <v>2.609398951155112</v>
+        <v>2.609398951359878</v>
       </c>
       <c r="L19" t="n">
-        <v>4.851225937254238e-14</v>
+        <v>-1.206897990068315e-14</v>
       </c>
       <c r="M19" t="n">
-        <v>-3.899303603480475e-14</v>
+        <v>-1.423088881489449e-14</v>
       </c>
       <c r="N19" t="n">
-        <v>0.6162936407853448</v>
+        <v>0.6162936407853637</v>
       </c>
       <c r="O19" t="n">
-        <v>4.167092736036678e-15</v>
+        <v>-4.748081627118715e-15</v>
       </c>
       <c r="P19" t="n">
         <v>46.7593984962406</v>
@@ -2044,10 +2044,10 @@
         <v>2.025896163849322</v>
       </c>
       <c r="W19" t="n">
-        <v>-40.00436921920624</v>
+        <v>-40.00436922002462</v>
       </c>
       <c r="X19" t="n">
-        <v>2.84112030677743</v>
+        <v>2.841120306986506</v>
       </c>
       <c r="Y19" t="n">
         <v>133</v>
@@ -2076,34 +2076,34 @@
         <v>46.90000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>44.90511154401112</v>
+        <v>44.90510546643951</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.002185766350433432</v>
+        <v>-0.002184185632031982</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.01007005633392401</v>
+        <v>-0.01006878804965947</v>
       </c>
       <c r="I20" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="J20" t="n">
-        <v>-2.833954133419538</v>
+        <v>-2.833951188592792</v>
       </c>
       <c r="K20" t="n">
-        <v>2.844239383297223</v>
+        <v>2.844236470129686</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.01826840718874933</v>
+        <v>-0.01826840764581899</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.05591448696540189</v>
+        <v>-0.05591448689495317</v>
       </c>
       <c r="N20" t="n">
-        <v>0.7655913299218574</v>
+        <v>0.7655913318669942</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01162849610373367</v>
+        <v>0.01162849784411761</v>
       </c>
       <c r="P20" t="n">
         <v>45.06611570247934</v>
@@ -2127,10 +2127,10 @@
         <v>1.914697089572389</v>
       </c>
       <c r="W20" t="n">
-        <v>-44.90511154401112</v>
+        <v>-44.90510546643951</v>
       </c>
       <c r="X20" t="n">
-        <v>3.059731977849907</v>
+        <v>3.059728936083038</v>
       </c>
       <c r="Y20" t="n">
         <v>121</v>
@@ -2159,34 +2159,34 @@
         <v>51.90000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>50.02765893785043</v>
+        <v>50.02765894900697</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.01473230114615368</v>
+        <v>-0.01473230338362788</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01242657371393309</v>
+        <v>0.01242657191687547</v>
       </c>
       <c r="I21" t="n">
-        <v>53.27214946097494</v>
+        <v>53.27214947375982</v>
       </c>
       <c r="J21" t="n">
-        <v>-3.244490523124507</v>
+        <v>-3.244490524752851</v>
       </c>
       <c r="K21" t="n">
-        <v>3.244490523124507</v>
+        <v>3.244490524752851</v>
       </c>
       <c r="L21" t="n">
-        <v>0.07228824218902448</v>
+        <v>0.07228824218908003</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.01033030816239672</v>
+        <v>-0.01033030816241115</v>
       </c>
       <c r="N21" t="n">
-        <v>0.8216708207440903</v>
+        <v>0.8216708207417218</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.1805640876199666</v>
+        <v>-0.1805640876174703</v>
       </c>
       <c r="P21" t="n">
         <v>50.48</v>
@@ -2210,10 +2210,10 @@
         <v>1.75735198767194</v>
       </c>
       <c r="W21" t="n">
-        <v>-50.02765893785043</v>
+        <v>-50.02765894900697</v>
       </c>
       <c r="X21" t="n">
-        <v>3.378365485212437</v>
+        <v>3.378365487272305</v>
       </c>
       <c r="Y21" t="n">
         <v>125</v>
